--- a/K12.Sports.FitnessImportExport/Resources/全校體適能中等以上(含中等)各項目百分比統計表(程式用樣版).xlsx
+++ b/K12.Sports.FitnessImportExport/Resources/全校體適能中等以上(含中等)各項目百分比統計表(程式用樣版).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ED\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ED\Documents\ischool_github\K12.Sports.FitnessImportExport\K12.Sports.FitnessImportExport\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>班級</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,12 +46,15 @@
     <t>全校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>四項達成率</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +78,12 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -117,7 +126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +147,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,28 +455,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,71 +493,74 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -569,7 +585,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -582,7 +598,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
